--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_22-17.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_22-17.xlsx
@@ -224,6 +224,9 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -455,6 +458,9 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 5</t>
   </si>
   <si>
@@ -485,10 +491,19 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فاتيكا الحبه السوداء 210 جم</t>
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 50مل</t>
@@ -2231,13 +2246,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2263,11 +2278,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2283,17 +2298,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2309,13 +2324,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2327,7 +2342,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2335,7 +2350,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2361,17 +2376,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2387,17 +2402,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2405,7 +2420,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2413,17 +2428,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2439,13 +2454,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2465,17 +2480,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2491,17 +2506,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2517,17 +2532,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2535,7 +2550,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2543,17 +2558,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2569,13 +2584,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2595,17 +2610,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2613,7 +2628,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2621,17 +2636,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2639,7 +2654,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2647,17 +2662,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2673,17 +2688,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2699,17 +2714,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2725,13 +2740,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2751,13 +2766,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>29</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2777,13 +2792,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2803,17 +2818,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2829,17 +2844,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2847,7 +2862,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2855,17 +2870,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2873,7 +2888,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2881,17 +2896,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2907,17 +2922,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2933,17 +2948,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2951,7 +2966,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2959,17 +2974,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2985,17 +3000,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3011,17 +3026,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3037,17 +3052,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3063,13 +3078,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3089,17 +3104,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3115,13 +3130,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>75.200000000000003</v>
+        <v>58</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3141,17 +3156,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>144</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3167,17 +3182,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3193,17 +3208,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3211,7 +3226,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3219,17 +3234,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3245,13 +3260,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3277,7 +3292,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3297,13 +3312,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3323,13 +3338,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3349,17 +3364,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3375,17 +3390,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3393,7 +3408,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3401,17 +3416,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3427,17 +3442,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3453,13 +3468,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3479,17 +3494,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3505,17 +3520,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3531,17 +3546,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3557,17 +3572,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3583,17 +3598,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3609,13 +3624,13 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
@@ -3635,13 +3650,13 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3661,13 +3676,13 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
@@ -3687,13 +3702,13 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>25.739999999999998</v>
+        <v>120</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
@@ -3713,17 +3728,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>14.67</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3731,7 +3746,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3739,17 +3754,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3765,17 +3780,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3783,7 +3798,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3791,17 +3806,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>86</v>
+        <v>16.5</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3817,17 +3832,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3843,17 +3858,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3869,17 +3884,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3895,17 +3910,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3927,11 +3942,11 @@
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3947,13 +3962,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3973,17 +3988,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -3991,7 +4006,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3999,7 +4014,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
@@ -4009,7 +4024,7 @@
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4017,7 +4032,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4025,17 +4040,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>-2</v>
+        <v>24</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4043,7 +4058,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4051,17 +4066,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4069,7 +4084,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4077,13 +4092,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>40</v>
+        <v>-2</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4103,13 +4118,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4129,13 +4144,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4155,13 +4170,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4181,51 +4196,155 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="K124" s="10">
-        <v>7022.5600000000004</v>
-      </c>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="11">
+    <row r="124" ht="24.75" customHeight="1">
+      <c r="A124" s="6">
+        <v>121</v>
+      </c>
+      <c t="s" r="B124" s="7">
         <v>162</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c t="s" r="F125" s="12">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c t="s" r="H124" s="8">
+        <v>157</v>
+      </c>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="9">
+        <v>20</v>
+      </c>
+      <c r="M124" s="9"/>
+      <c t="s" r="N124" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" ht="25.5" customHeight="1">
+      <c r="A125" s="6">
+        <v>122</v>
+      </c>
+      <c t="s" r="B125" s="7">
         <v>163</v>
       </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
-      <c t="s" r="I125" s="14">
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c t="s" r="H125" s="8">
         <v>164</v>
       </c>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
-      <c r="L125" s="14"/>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="9">
+        <v>24</v>
+      </c>
+      <c r="M125" s="9"/>
+      <c t="s" r="N125" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" ht="24.75" customHeight="1">
+      <c r="A126" s="6">
+        <v>123</v>
+      </c>
+      <c t="s" r="B126" s="7">
+        <v>165</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c t="s" r="H126" s="8">
+        <v>92</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="9">
+        <v>80</v>
+      </c>
+      <c r="M126" s="9"/>
+      <c t="s" r="N126" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="6">
+        <v>124</v>
+      </c>
+      <c t="s" r="B127" s="7">
+        <v>166</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c t="s" r="H127" s="8">
+        <v>9</v>
+      </c>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="9">
+        <v>20</v>
+      </c>
+      <c r="M127" s="9"/>
+      <c t="s" r="N127" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" customHeight="1">
+      <c r="K128" s="10">
+        <v>7143.5600000000004</v>
+      </c>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+    </row>
+    <row r="129" ht="17.25" customHeight="1">
+      <c t="s" r="A129" s="11">
+        <v>167</v>
+      </c>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c t="s" r="F129" s="12">
+        <v>168</v>
+      </c>
+      <c r="G129" s="12"/>
+      <c r="H129" s="13"/>
+      <c t="s" r="I129" s="14">
+        <v>169</v>
+      </c>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="371">
+  <mergeCells count="383">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4593,10 +4712,22 @@
     <mergeCell ref="B123:G123"/>
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
-    <mergeCell ref="K124:N124"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="I125:N125"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="K128:N128"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="I129:N129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
